--- a/Data Files/Book1.xlsx
+++ b/Data Files/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3EF42A-2CC8-474B-A317-E0CB26D3ED8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4F9B7-2AEE-43DC-96AC-800B994749D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5896257A-60B2-4976-B249-DFEA0104E4B9}"/>
   </bookViews>
@@ -31,15 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Search-case</t>
   </si>
   <si>
-    <t>lien minh huyen thoai</t>
+    <t>aptech</t>
   </si>
   <si>
-    <t>vnexpress</t>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>youtube</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +74,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,30 +410,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA22378F-1BF8-4FFF-A8C9-576ADA22842D}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Book1.xlsx
+++ b/Data Files/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\katalon-start\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A4F9B7-2AEE-43DC-96AC-800B994749D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7FFEAF-8E06-49C8-A213-A3A1A7F8C052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5896257A-60B2-4976-B249-DFEA0104E4B9}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Search-case</t>
-  </si>
-  <si>
     <t>aptech</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>youtube</t>
+  </si>
+  <si>
+    <t>search_case</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,15 +423,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>9999</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
